--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -30,10 +30,10 @@
     <t>卸货门</t>
   </si>
   <si>
-    <t>@supplier.Name</t>
-  </si>
-  <si>
-    <t>@supplier.Code</t>
+    <t>@supplier==null?"":supplier.Name</t>
+  </si>
+  <si>
+    <t>@supplier==null?"":supplier.Code</t>
   </si>
   <si>
     <t>@shipmentTicket.Destination</t>
@@ -42,7 +42,7 @@
     <t>@shipmentTicket.Gate</t>
   </si>
   <si>
-    <t>入库单-供应商留存</t>
+    <t xml:space="preserve">  入库单-供应商留存</t>
   </si>
   <si>
     <t>车牌号</t>
@@ -63,16 +63,16 @@
     <t>@ticket.CarNum</t>
   </si>
   <si>
-    <t>@ticket.DeliverTime.toLocaleString()</t>
+    <t>@time.toLocaleString()</t>
   </si>
   <si>
     <t>@ticket.Driver</t>
   </si>
   <si>
-    <t>@ticket.ExpectedArriveTime.toLocaleDateString()</t>
-  </si>
-  <si>
-    <t>@ticket.ExpectedArriveTime.toLocaleTimeString()</t>
+    <t>@ticket.ExpectedArriveTime==null?"无":ticket.ExpectedArriveTime.toLocaleDateString()</t>
+  </si>
+  <si>
+    <t>@ticket.ExpectedArriveTime==null?"无":ticket.ExpectedArriveTime.toLocaleTimeString()</t>
   </si>
   <si>
     <t>顺序</t>
@@ -125,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,38 +139,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,16 +183,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,14 +228,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,15 +260,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,79 +299,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,110 +483,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -584,6 +591,15 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -618,6 +634,54 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,48 +703,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,17 +726,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,149 +734,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,19 +907,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1282,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1302,15 +1327,14 @@
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="17.6" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1325,9 +1349,9 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1337,10 +1361,10 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1356,12 +1380,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="9"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>19</v>
@@ -1373,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1383,7 +1415,7 @@
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1394,11 +1426,11 @@
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
@@ -1411,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1421,12 +1453,12 @@
       <c r="H11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="16" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G5:H5"/>
@@ -1437,7 +1469,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="D4:F5"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="G6:H7"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -63,7 +63,7 @@
     <t>@ticket.CarNum</t>
   </si>
   <si>
-    <t>@time.toLocaleString()</t>
+    <t>@ticket.DeliverTime.toLocaleString()</t>
   </si>
   <si>
     <t>@ticket.Driver</t>
@@ -126,9 +126,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,6 +146,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -153,16 +168,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,115 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +305,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,7 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,25 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,115 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +626,56 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,6 +693,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,71 +726,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t xml:space="preserve"> 供应商</t>
   </si>
@@ -30,6 +30,9 @@
     <t>卸货门</t>
   </si>
   <si>
+    <t>@var deliverTime = ticket.DeliverTime==null?'':ticket.DeliverTime.toLocaleString();''</t>
+  </si>
+  <si>
     <t>@supplier==null?"":supplier.Name</t>
   </si>
   <si>
@@ -63,7 +66,7 @@
     <t>@ticket.CarNum</t>
   </si>
   <si>
-    <t>@ticket.DeliverTime.toLocaleString()</t>
+    <t>@deliverTime</t>
   </si>
   <si>
     <t>@ticket.Driver</t>
@@ -146,7 +149,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,6 +223,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -162,7 +263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,37 +282,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,73 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,6 +302,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,61 +356,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,109 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +629,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,11 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,50 +697,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +720,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,15 +1282,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,21 +1305,24 @@
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1332,7 +1338,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="5"/>
@@ -1341,41 +1347,41 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1396,32 +1402,32 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="16"/>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
@@ -1434,27 +1440,27 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="16"/>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="10575"/>
+    <workbookView windowWidth="4605" windowHeight="3487"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,8 +130,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,19 +150,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -171,7 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,53 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,40 +287,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,13 +302,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,151 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +629,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,33 +675,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,9 +721,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -18,19 +18,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
-    <t xml:space="preserve"> 供应商</t>
+    <t xml:space="preserve"> 供应商 #SET TABLE COLUMNS 9</t>
   </si>
   <si>
     <t>企业代码</t>
   </si>
   <si>
+    <t>@var deliverTime = ticket.DeliverTime==null?'':ticket.DeliverTime.toLocaleString();''</t>
+  </si>
+  <si>
     <t>工厂</t>
   </si>
   <si>
     <t>卸货门</t>
-  </si>
-  <si>
-    <t>@var deliverTime = ticket.DeliverTime==null?'':ticket.DeliverTime.toLocaleString();''</t>
   </si>
   <si>
     <t>@supplier==null?"":supplier.Name</t>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,6 +150,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,14 +164,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +180,53 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +256,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -211,29 +272,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,52 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +629,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -647,6 +656,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -670,8 +709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,45 +729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -737,145 +737,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,15 +1282,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,14 +1298,14 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
